--- a/data/washington/da_sampling/data/missing_site_latlongs.xlsx
+++ b/data/washington/da_sampling/data/missing_site_latlongs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/da_sampling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77075F5-22DC-F643-9B50-D825AAB34B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BB1BF0-4572-8143-BEEA-FCE7F3468595}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="7300" windowWidth="28040" windowHeight="17440" xr2:uid="{22BE2041-A526-2440-9E5D-025D93347577}"/>
+    <workbookView xWindow="6800" yWindow="6000" windowWidth="28040" windowHeight="17440" xr2:uid="{22BE2041-A526-2440-9E5D-025D93347577}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +141,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -165,11 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +494,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,11 +537,11 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>48.166052000000001</v>
-      </c>
-      <c r="F2">
-        <v>-124.73311200000001</v>
+      <c r="E2" s="4">
+        <v>48.164696999999997</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-124.733465</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -550,11 +557,11 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>47.906008</v>
-      </c>
-      <c r="F3">
-        <v>-124.64743300000001</v>
+      <c r="E3" s="4">
+        <v>47.906585</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-124.643489</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,11 +577,11 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>46.926628000000001</v>
-      </c>
-      <c r="F4">
-        <v>-124.179706</v>
+      <c r="E4" s="4">
+        <v>46.926909999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-124.17689900000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
